--- a/Grid.xlsx
+++ b/Grid.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\enc91\Desktop\hobby\AI\RL\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{552B8653-7482-4C4D-8FEA-AEB4F900935C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33ECB293-0133-43B3-9D80-D6C69B7DA165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9516" yWindow="1092" windowWidth="18972" windowHeight="11040" xr2:uid="{30FB2B4A-8F6F-4EB2-A4B8-04DB2E40220D}"/>
+    <workbookView xWindow="14340" yWindow="2184" windowWidth="21384" windowHeight="11004" xr2:uid="{30FB2B4A-8F6F-4EB2-A4B8-04DB2E40220D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,10 +29,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -62,7 +58,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -100,28 +96,196 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top/>
       <bottom style="medium">
         <color indexed="64"/>
@@ -129,166 +293,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
+      <left/>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -304,70 +315,70 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -696,7 +707,7 @@
       <c r="C1" s="3"/>
       <c r="D1" s="4"/>
       <c r="E1" s="5"/>
-      <c r="F1" s="22">
+      <c r="F1" s="18">
         <v>0</v>
       </c>
     </row>
@@ -704,56 +715,56 @@
       <c r="A2" s="6"/>
       <c r="B2" s="7"/>
       <c r="C2" s="8"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="22">
+      <c r="D2" s="19"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="36.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="11"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="13"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="12"/>
       <c r="D3" s="8"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="22">
+      <c r="E3" s="20"/>
+      <c r="F3" s="18">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="36.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="11"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="22">
+      <c r="A4" s="10"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="18">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="18"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="22">
+      <c r="A5" s="16"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="18">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="36.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="22">
+      <c r="A6" s="18">
         <v>0</v>
       </c>
-      <c r="B6" s="22">
+      <c r="B6" s="18">
         <v>1</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6" s="18">
         <v>2</v>
       </c>
-      <c r="D6" s="22">
+      <c r="D6" s="18">
         <v>3</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="18">
         <v>4</v>
       </c>
     </row>
